--- a/biology/Médecine/Interleukine_9/Interleukine_9.xlsx
+++ b/biology/Médecine/Interleukine_9/Interleukine_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'interleukine 9 est une chimiokine de type interleukine. Son gène est IL9 situé sur le chromosome 5 humain.
-Elle est sécrétée essentiellement par certains lymphocytes T helper appelés, pour cette raison, lymphocytes Th9[5] ainsi que par les Th2, les Th17 et le lymphocytes T régulateurs[6].
+Elle est sécrétée essentiellement par certains lymphocytes T helper appelés, pour cette raison, lymphocytes Th9 ainsi que par les Th2, les Th17 et le lymphocytes T régulateurs.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle agit par l'intermédiaire de sa fixation sur un récepteur spécifique, l'IL9R[7].
-Elle joue un rôle dans l'inflammation par l'intermédiaire des lymphocytes Th17[8]. Elle augmente l'expression des interleukines 4, 5 et 13 entraînant une exacerbation de l'asthme sur un modèle animal de cette maladie[9].
-Son taux est augmenté en cas de syndrome coronarien aigu[10] ainsi que chez les patients porteurs d'un athérome carotidien[11] avec un rôle probablement aggravant sur l'athérome[12]. 
-Son expression est augmentée par le facteur de transcription PU1[13].
-Les cellules Th9 ont par ailleurs un rôle d'immunité anti-tumorale en stimulant les lymphocytes CD8[14], bien que l'interleukine 9 ait un rôle probable dans la tumorigénèse[15].
-Cette interleukine participe à la résistance à certains parasites[16].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle agit par l'intermédiaire de sa fixation sur un récepteur spécifique, l'IL9R.
+Elle joue un rôle dans l'inflammation par l'intermédiaire des lymphocytes Th17. Elle augmente l'expression des interleukines 4, 5 et 13 entraînant une exacerbation de l'asthme sur un modèle animal de cette maladie.
+Son taux est augmenté en cas de syndrome coronarien aigu ainsi que chez les patients porteurs d'un athérome carotidien avec un rôle probablement aggravant sur l'athérome. 
+Son expression est augmentée par le facteur de transcription PU1.
+Les cellules Th9 ont par ailleurs un rôle d'immunité anti-tumorale en stimulant les lymphocytes CD8, bien que l'interleukine 9 ait un rôle probable dans la tumorigénèse.
+Cette interleukine participe à la résistance à certains parasites.
 </t>
         </is>
       </c>
